--- a/Zeta_Plots/022124_DLSZeta_gradientcopoly_NP1,5,7.5,10_pDNA50to10.xlsx
+++ b/Zeta_Plots/022124_DLSZeta_gradientcopoly_NP1,5,7.5,10_pDNA50to10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26028C7-6C81-C54E-832C-82DD44AF21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3622C323-9ABB-F348-AF81-BC1C43A8D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="3120" windowWidth="23260" windowHeight="12460" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
   </bookViews>
   <sheets>
     <sheet name="NP 1" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,11 @@
     <t>Stdev</t>
   </si>
   <si>
-    <t>pDNA</t>
+    <t>N/P ratio</t>
   </si>
   <si>
-    <t>N/P ratio</t>
+    <t>pDNA+
+H₂O</t>
   </si>
 </sst>
 </file>
@@ -146,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -155,6 +156,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2001,7 +2005,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2011,7 +2015,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2020,9 +2024,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>

--- a/Zeta_Plots/022124_DLSZeta_gradientcopoly_NP1,5,7.5,10_pDNA50to10.xlsx
+++ b/Zeta_Plots/022124_DLSZeta_gradientcopoly_NP1,5,7.5,10_pDNA50to10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3622C323-9ABB-F348-AF81-BC1C43A8D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA1054-4B54-3E4A-9344-E8547CBC8B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
+    <workbookView xWindow="18460" yWindow="6080" windowWidth="25600" windowHeight="15980" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
   </bookViews>
   <sheets>
     <sheet name="NP 1" sheetId="1" r:id="rId1"/>
@@ -84,8 +84,7 @@
     <t>N/P ratio</t>
   </si>
   <si>
-    <t>pDNA+
-H₂O</t>
+    <t>pDNA</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2004,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
